--- a/StructureDefinition-vaccine-credential-patient.xlsx
+++ b/StructureDefinition-vaccine-credential-patient.xlsx
@@ -2990,7 +2990,7 @@
         <v>51</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>52</v>
